--- a/Generate SQL/attachments/STAFF.xlsx
+++ b/Generate SQL/attachments/STAFF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fharookshaik\Desktop\PythonApiTutorial\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fharookshaik\Desktop\V Sem\DBMS\DBMS-Project Vehicle Insurance\Generate SQL\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88486C1D-79CC-4F61-9233-9BE1C263D5D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32435A30-283A-4DB2-ABFA-F28209B1398A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -777,7 +777,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,6 +883,9 @@
       <c r="D3" t="s">
         <v>43</v>
       </c>
+      <c r="E3">
+        <v>9859875632</v>
+      </c>
       <c r="F3" t="s">
         <v>41</v>
       </c>
@@ -1204,6 +1207,9 @@
       <c r="D12" t="s">
         <v>50</v>
       </c>
+      <c r="E12">
+        <v>7865945123</v>
+      </c>
       <c r="F12" t="s">
         <v>61</v>
       </c>
@@ -1449,6 +1455,9 @@
       <c r="D19" t="s">
         <v>54</v>
       </c>
+      <c r="E19">
+        <v>7894565123</v>
+      </c>
       <c r="F19" t="s">
         <v>62</v>
       </c>
@@ -1481,6 +1490,9 @@
       <c r="D20" t="s">
         <v>55</v>
       </c>
+      <c r="E20">
+        <v>8456123789</v>
+      </c>
       <c r="F20" t="s">
         <v>61</v>
       </c>
@@ -1726,6 +1738,9 @@
       <c r="C27" t="s">
         <v>29</v>
       </c>
+      <c r="E27">
+        <v>8451679123</v>
+      </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
@@ -1748,6 +1763,9 @@
       </c>
       <c r="C28" t="s">
         <v>41</v>
+      </c>
+      <c r="E28">
+        <v>9845673215</v>
       </c>
       <c r="F28" t="s">
         <v>61</v>
